--- a/variedades/PC.xlsx
+++ b/variedades/PC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\2 DS-TB A - 12\Nicole_Camacho\SENAI\variedades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56914185808\Documents\SENAI-2-TERMO\variedades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E906D7E6-2DD2-428B-869A-99F5BD4A0223}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99BCD0A-78BF-4728-91D9-4E587E53876C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>MONITOR</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>RTX 3060 12gb</t>
+  </si>
+  <si>
+    <t>ORDEM DE COMPRA</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +407,7 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -416,7 +420,9 @@
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -435,6 +441,9 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -462,6 +471,9 @@
       </c>
       <c r="B10" t="s">
         <v>13</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/variedades/PC.xlsx
+++ b/variedades/PC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56914185808\Documents\SENAI-2-TERMO\variedades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99BCD0A-78BF-4728-91D9-4E587E53876C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17CDF43-9D43-4740-9620-16DF8CB31188}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MONITOR</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>ORDEM DE COMPRA</t>
+  </si>
+  <si>
+    <t>Placa mãe AMD AM4 - B550M tuf gaming</t>
   </si>
 </sst>
 </file>
@@ -399,13 +402,13 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -433,6 +436,12 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">

--- a/variedades/PC.xlsx
+++ b/variedades/PC.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56914185808\Documents\SENAI-2-TERMO\variedades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17CDF43-9D43-4740-9620-16DF8CB31188}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B31074-30FE-4272-B078-2B195329D974}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planejamento PC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>MONITOR</t>
   </si>
@@ -54,9 +54,6 @@
     <t>COMPONENTES</t>
   </si>
   <si>
-    <t>FANS</t>
-  </si>
-  <si>
     <t>MODELO</t>
   </si>
   <si>
@@ -72,7 +69,28 @@
     <t>ORDEM DE COMPRA</t>
   </si>
   <si>
-    <t>Placa mãe AMD AM4 - B550M tuf gaming</t>
+    <t>Monitor Gamer Mancer Valak ZX240H</t>
+  </si>
+  <si>
+    <t>QUANTIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Memória Kingston 8GB Ddr4 3600mhz Fury Beast</t>
+  </si>
+  <si>
+    <t>SSD Kingston NV3 M.2 NVMe 2280 1TB</t>
+  </si>
+  <si>
+    <t>FANS / WATERCOOLER</t>
+  </si>
+  <si>
+    <t>Placa mãe AMD AM4 - B550M tuf gaming MATX plus2</t>
+  </si>
+  <si>
+    <t>GABINETE GAMER RISE MODE GALAXY GLASS STANDARD BLACK – 10 FANS</t>
   </si>
 </sst>
 </file>
@@ -399,95 +417,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/variedades/PC.xlsx
+++ b/variedades/PC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56914185808\Documents\SENAI-2-TERMO\variedades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B31074-30FE-4272-B078-2B195329D974}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7A97B2-0A2D-443F-8EF3-4E2144B14E02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>MONITOR</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>GABINETE GAMER RISE MODE GALAXY GLASS STANDARD BLACK – 10 FANS</t>
+  </si>
+  <si>
+    <t>TALVEZ NÃO PRECISE COMPRAR, JÁ PELA QUANTIDADE DO GABINETE</t>
+  </si>
+  <si>
+    <t>Fonte PC 750W 80 Plus Gold Gigabyte</t>
   </si>
 </sst>
 </file>
@@ -420,7 +426,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,6 +503,9 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
       <c r="D7">
         <v>9</v>
       </c>
@@ -543,6 +552,9 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
       <c r="D11">
         <v>8</v>

--- a/variedades/PC.xlsx
+++ b/variedades/PC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56914185808\Documents\SENAI-2-TERMO\variedades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ct67ca\Documents\DS12\Nicole\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7A97B2-0A2D-443F-8EF3-4E2144B14E02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFCB3DC-9564-4C5C-B0CF-B58AD29B8073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3015" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planejamento PC" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>MONITOR</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Processador AMD Ryzen 7 5800X</t>
   </si>
   <si>
-    <t>RTX 3060 12gb</t>
-  </si>
-  <si>
     <t>ORDEM DE COMPRA</t>
   </si>
   <si>
@@ -97,13 +94,25 @@
   </si>
   <si>
     <t>Fonte PC 750W 80 Plus Gold Gigabyte</t>
+  </si>
+  <si>
+    <t>Placa De Vídeo Galax GeForce RTX 3060 1-Click OC 12GB GDDR6 - 36NOL7MD1VOC</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>Kabum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +127,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF6500"/>
+      <name val="__Poppins_692861"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,14 +159,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,22 +450,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -449,35 +476,39 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -488,45 +519,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -535,26 +566,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2084.9</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>8</v>
